--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CalibrationParametersQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CalibrationParametersQuotes.xlsx
@@ -10,9 +10,6 @@
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Trigger</t>
   </si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>TickValue</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
     <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -529,22 +529,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -841,7 +825,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="1"/>
@@ -854,7 +838,7 @@
     <col min="9" max="204" width="9.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
@@ -865,7 +849,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:34" ht="15.75">
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
         <v>8</v>
       </c>
@@ -875,7 +859,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -883,7 +867,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="6" t="s">
         <v>0</v>
@@ -893,7 +877,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -905,7 +889,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>9</v>
@@ -917,7 +901,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -929,20 +913,19 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -954,7 +937,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="12" thickBot="1">
+    <row r="10" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -962,7 +945,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="12" thickBot="1">
+    <row r="11" spans="1:34" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -970,7 +953,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:34" s="35" customFormat="1" ht="15.75">
+    <row r="12" spans="1:34" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="40" t="s">
         <v>14</v>
@@ -1008,7 +991,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" s="35" customFormat="1">
+    <row r="13" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -1044,7 +1027,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" s="35" customFormat="1">
+    <row r="14" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6" t="s">
@@ -1084,7 +1067,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" s="35" customFormat="1">
+    <row r="15" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6" t="s">
@@ -1124,7 +1107,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" s="35" customFormat="1">
+    <row r="16" spans="1:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6" t="s">
@@ -1164,7 +1147,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" s="35" customFormat="1" ht="12" thickBot="1">
+    <row r="17" spans="1:34" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="10"/>
       <c r="C17" s="11"/>
@@ -1200,7 +1183,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1208,7 +1191,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1216,7 +1199,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1224,7 +1207,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1232,7 +1215,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1240,7 +1223,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1248,7 +1231,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1256,7 +1239,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1264,7 +1247,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1272,7 +1255,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1280,7 +1263,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1288,7 +1271,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1296,7 +1279,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1304,7 +1287,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1312,7 +1295,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1320,116 +1303,116 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" s="2" customFormat="1"/>
-    <row r="34" s="2" customFormat="1"/>
-    <row r="35" s="2" customFormat="1"/>
-    <row r="36" s="2" customFormat="1"/>
-    <row r="37" s="2" customFormat="1"/>
-    <row r="38" s="2" customFormat="1"/>
-    <row r="39" s="2" customFormat="1"/>
-    <row r="40" s="2" customFormat="1"/>
-    <row r="41" s="2" customFormat="1"/>
-    <row r="42" s="2" customFormat="1"/>
-    <row r="43" s="2" customFormat="1"/>
-    <row r="44" s="2" customFormat="1"/>
-    <row r="45" s="2" customFormat="1"/>
-    <row r="46" s="2" customFormat="1"/>
-    <row r="47" s="2" customFormat="1"/>
-    <row r="48" s="2" customFormat="1"/>
-    <row r="49" s="2" customFormat="1"/>
-    <row r="50" s="2" customFormat="1"/>
-    <row r="51" s="2" customFormat="1"/>
-    <row r="52" s="2" customFormat="1"/>
-    <row r="53" s="2" customFormat="1"/>
-    <row r="54" s="2" customFormat="1"/>
-    <row r="55" s="2" customFormat="1"/>
-    <row r="56" s="2" customFormat="1"/>
-    <row r="57" s="2" customFormat="1"/>
-    <row r="58" s="2" customFormat="1"/>
-    <row r="59" s="2" customFormat="1"/>
-    <row r="60" s="2" customFormat="1"/>
-    <row r="61" s="2" customFormat="1"/>
-    <row r="62" s="2" customFormat="1"/>
-    <row r="63" s="2" customFormat="1"/>
-    <row r="64" s="2" customFormat="1"/>
-    <row r="65" s="2" customFormat="1"/>
-    <row r="66" s="2" customFormat="1"/>
-    <row r="67" s="2" customFormat="1"/>
-    <row r="68" s="2" customFormat="1"/>
-    <row r="69" s="2" customFormat="1"/>
-    <row r="70" s="2" customFormat="1"/>
-    <row r="71" s="2" customFormat="1"/>
-    <row r="72" s="2" customFormat="1"/>
-    <row r="73" s="2" customFormat="1"/>
-    <row r="74" s="2" customFormat="1"/>
-    <row r="75" s="2" customFormat="1"/>
-    <row r="76" s="2" customFormat="1"/>
-    <row r="77" s="2" customFormat="1"/>
-    <row r="78" s="2" customFormat="1"/>
-    <row r="79" s="2" customFormat="1"/>
-    <row r="80" s="2" customFormat="1"/>
-    <row r="81" s="2" customFormat="1"/>
-    <row r="82" s="2" customFormat="1"/>
-    <row r="83" s="2" customFormat="1"/>
-    <row r="84" s="2" customFormat="1"/>
-    <row r="85" s="2" customFormat="1"/>
-    <row r="86" s="2" customFormat="1"/>
-    <row r="87" s="2" customFormat="1"/>
-    <row r="88" s="2" customFormat="1"/>
-    <row r="89" s="2" customFormat="1"/>
-    <row r="90" s="2" customFormat="1"/>
-    <row r="91" s="2" customFormat="1"/>
-    <row r="92" s="2" customFormat="1"/>
-    <row r="93" s="2" customFormat="1"/>
-    <row r="94" s="2" customFormat="1"/>
-    <row r="95" s="2" customFormat="1"/>
-    <row r="96" s="2" customFormat="1"/>
-    <row r="97" s="2" customFormat="1"/>
-    <row r="98" s="2" customFormat="1"/>
-    <row r="99" s="2" customFormat="1"/>
-    <row r="100" s="2" customFormat="1"/>
-    <row r="101" s="2" customFormat="1"/>
-    <row r="102" s="2" customFormat="1"/>
-    <row r="103" s="2" customFormat="1"/>
-    <row r="104" s="2" customFormat="1"/>
-    <row r="105" s="2" customFormat="1"/>
-    <row r="106" s="2" customFormat="1"/>
-    <row r="107" s="2" customFormat="1"/>
-    <row r="108" s="2" customFormat="1"/>
-    <row r="109" s="2" customFormat="1"/>
-    <row r="110" s="2" customFormat="1"/>
-    <row r="111" s="2" customFormat="1"/>
-    <row r="112" s="2" customFormat="1"/>
-    <row r="113" s="2" customFormat="1"/>
-    <row r="114" s="2" customFormat="1"/>
-    <row r="115" s="2" customFormat="1"/>
-    <row r="116" s="2" customFormat="1"/>
-    <row r="117" s="2" customFormat="1"/>
-    <row r="118" s="2" customFormat="1"/>
-    <row r="119" s="2" customFormat="1"/>
-    <row r="120" s="2" customFormat="1"/>
-    <row r="121" s="2" customFormat="1"/>
-    <row r="122" s="2" customFormat="1"/>
-    <row r="123" s="2" customFormat="1"/>
-    <row r="124" s="2" customFormat="1"/>
-    <row r="125" s="2" customFormat="1"/>
-    <row r="126" s="2" customFormat="1"/>
-    <row r="127" s="2" customFormat="1"/>
-    <row r="128" s="2" customFormat="1"/>
-    <row r="129" s="2" customFormat="1"/>
-    <row r="130" s="2" customFormat="1"/>
-    <row r="131" s="2" customFormat="1"/>
-    <row r="132" s="2" customFormat="1"/>
-    <row r="133" s="2" customFormat="1"/>
-    <row r="134" s="2" customFormat="1"/>
-    <row r="135" s="2" customFormat="1"/>
-    <row r="136" s="2" customFormat="1"/>
-    <row r="137" s="2" customFormat="1"/>
-    <row r="138" s="2" customFormat="1"/>
-    <row r="139" s="2" customFormat="1"/>
-    <row r="140" s="2" customFormat="1"/>
-    <row r="141" s="2" customFormat="1"/>
-    <row r="142" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
@@ -1456,7 +1439,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -1466,7 +1449,7 @@
     <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1474,7 +1457,7 @@
       <c r="E1" s="17"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:6" ht="22.5">
+    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19"/>
       <c r="B2" s="24" t="s">
         <v>1</v>
@@ -1482,9 +1465,9 @@
       <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26" t="e">
+      <c r="D2" s="26">
         <f>IF(Serialize,_xll.ohObjectSave(D3:D7,SerializationPath&amp;E2,FileOverwrite,Serialize),"--")</f>
-        <v>#NUM!</v>
+        <v>5</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>Currency&amp;"_010_SwaptionsCalibrationParametersQuotes.xml"</f>
@@ -1492,7 +1475,7 @@
       </c>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="28" t="s">
         <v>2</v>
@@ -1511,7 +1494,7 @@
       </c>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="31" t="s">
         <v>3</v>
@@ -1530,7 +1513,7 @@
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="31" t="s">
         <v>4</v>
@@ -1549,7 +1532,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="31" t="s">
         <v>5</v>
@@ -1568,7 +1551,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="32" t="s">
         <v>6</v>
@@ -1587,7 +1570,7 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="1:6" ht="12" thickBot="1">
+    <row r="8" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>

--- a/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CalibrationParametersQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/040_SwaptionVolBootstrap/010_Quotes/EUR_010_CalibrationParametersQuotes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Trigger</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>TickValue</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -918,8 +915,9 @@
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
+      <c r="D8" s="13" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\040_SwaptionVolBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="2"/>
@@ -1465,9 +1463,9 @@
       <c r="C2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26">
-        <f>IF(Serialize,_xll.ohObjectSave(D3:D7,SerializationPath&amp;E2,FileOverwrite,Serialize),"--")</f>
-        <v>5</v>
+      <c r="D2" s="26" t="e">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(D3:D7,SerializationPath&amp;E2,FileOverwrite,Serialize),"--")</f>
+        <v>#NAME?</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>Currency&amp;"_010_SwaptionsCalibrationParametersQuotes.xml"</f>
